--- a/QueryCau5.xlsx
+++ b/QueryCau5.xlsx
@@ -5,26 +5,26 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025\School\OLAP\IS217_Q13_23521367_23520982\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2025\School\IS217_Q13_23521367_23520982\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A098FF4F-9973-41EF-955E-C30600C7E9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A475FC1-4CCD-4578-9AEE-6FA9188AE450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{19292369-193E-4622-81DA-810679630C3E}"/>
+    <workbookView xWindow="3930" yWindow="1050" windowWidth="21600" windowHeight="11295" xr2:uid="{329BAB63-934C-4AED-A535-7E62440E20F8}"/>
   </bookViews>
   <sheets>
-    <sheet name="tmpE392" sheetId="1" r:id="rId1"/>
+    <sheet name="tmpDF55" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId2"/>
+    <pivotCache cacheId="16" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{1935E0CD-58E5-4588-A58A-C290B31B2B40}" odcFile="C:\Users\SINISTER\AppData\Local\Temp\tmpE392.odc" keepAlive="1" name="SINISTER ssas_project" type="5" refreshedVersion="8" background="1">
+  <connection id="1" xr16:uid="{31D081B2-95B3-4B9E-A361-0E64A19B9338}" odcFile="C:\Users\SINISTER\AppData\Local\Temp\tmpDF55.odc" keepAlive="1" name="SINISTER ssas_project" type="5" refreshedVersion="8" background="1">
     <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=ssas_project;Data Source=SINISTER;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="US Accidents DW" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -37,148 +37,148 @@
     <t>Row Labels</t>
   </si>
   <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
     <t>SC</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>MO</t>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UT</t>
   </si>
   <si>
     <t>VA</t>
   </si>
   <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>IL</t>
+    <t>VT</t>
   </si>
   <si>
     <t>WA</t>
   </si>
   <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
     <t>WI</t>
   </si>
   <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
     <t>WV</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>NM</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>RI</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>ME</t>
   </si>
   <si>
     <t>WY</t>
@@ -747,71 +747,77 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="SINISTER" refreshedDate="45970.558154861108" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{86FBC398-51F8-4775-A6BF-267CF71E4262}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="SINISTER" refreshedDate="45977.443464583332" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{D0D1E2A4-88DF-404F-8E25-048F133124AD}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[DIM LOCATION].[STATE].[STATE]" caption="STATE" numFmtId="0" hierarchy="20" level="1">
+  <cacheFields count="4">
+    <cacheField name="[DIM LOCATION].[STATE].[STATE]" caption="STATE" numFmtId="0" hierarchy="21" level="1" mappingCount="1">
       <sharedItems count="49">
-        <s v="[DIM LOCATION].[STATE].&amp;[AL]" c="AL"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[AR]" c="AR"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[AZ]" c="AZ"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[CA]" c="CA"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[CO]" c="CO"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[CT]" c="CT"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[DC]" c="DC"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[DE]" c="DE"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[FL]" c="FL"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[GA]" c="GA"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[IA]" c="IA"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[ID]" c="ID"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[IL]" c="IL"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[IN]" c="IN"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[KS]" c="KS"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[KY]" c="KY"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[LA]" c="LA"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[MA]" c="MA"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[MD]" c="MD"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[ME]" c="ME"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[MI]" c="MI"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[MN]" c="MN"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[MO]" c="MO"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[MS]" c="MS"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[MT]" c="MT"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[NC]" c="NC"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[ND]" c="ND"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[NE]" c="NE"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[NH]" c="NH"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[NJ]" c="NJ"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[NM]" c="NM"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[NV]" c="NV"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[NY]" c="NY"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[OH]" c="OH"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[OK]" c="OK"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[OR]" c="OR"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[PA]" c="PA"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[RI]" c="RI"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[SC]" c="SC"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[SD]" c="SD"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[TN]" c="TN"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[TX]" c="TX"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[UT]" c="UT"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[VA]" c="VA"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[VT]" c="VT"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[WA]" c="WA"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[WI]" c="WI"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[WV]" c="WV"/>
-        <s v="[DIM LOCATION].[STATE].&amp;[WY]" c="WY"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[AL]&amp;[US]" c="AL"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[AR]&amp;[US]" c="AR"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[AZ]&amp;[US]" c="AZ"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[CA]&amp;[US]" c="CA"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[CO]&amp;[US]" c="CO"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[CT]&amp;[US]" c="CT"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[DC]&amp;[US]" c="DC"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[DE]&amp;[US]" c="DE"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[FL]&amp;[US]" c="FL"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[GA]&amp;[US]" c="GA"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[IA]&amp;[US]" c="IA"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[ID]&amp;[US]" c="ID"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[IL]&amp;[US]" c="IL"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[IN]&amp;[US]" c="IN"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[KS]&amp;[US]" c="KS"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[KY]&amp;[US]" c="KY"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[LA]&amp;[US]" c="LA"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[MA]&amp;[US]" c="MA"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[MD]&amp;[US]" c="MD"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[ME]&amp;[US]" c="ME"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[MI]&amp;[US]" c="MI"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[MN]&amp;[US]" c="MN"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[MO]&amp;[US]" c="MO"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[MS]&amp;[US]" c="MS"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[MT]&amp;[US]" c="MT"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[NC]&amp;[US]" c="NC"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[ND]&amp;[US]" c="ND"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[NE]&amp;[US]" c="NE"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[NH]&amp;[US]" c="NH"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[NJ]&amp;[US]" c="NJ"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[NM]&amp;[US]" c="NM"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[NV]&amp;[US]" c="NV"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[NY]&amp;[US]" c="NY"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[OH]&amp;[US]" c="OH"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[OK]&amp;[US]" c="OK"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[OR]&amp;[US]" c="OR"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[PA]&amp;[US]" c="PA"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[RI]&amp;[US]" c="RI"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[SC]&amp;[US]" c="SC"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[SD]&amp;[US]" c="SD"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[TN]&amp;[US]" c="TN"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[TX]&amp;[US]" c="TX"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[UT]&amp;[US]" c="UT"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[VA]&amp;[US]" c="VA"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[VT]&amp;[US]" c="VT"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[WA]&amp;[US]" c="WA"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[WI]&amp;[US]" c="WI"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[WV]&amp;[US]" c="WV"/>
+        <s v="[DIM LOCATION].[STATE].&amp;[WY]&amp;[US]" c="WY"/>
+      </sharedItems>
+      <mpMap v="1"/>
+    </cacheField>
+    <cacheField name="[DIM LOCATION].[STATE].[STATE].[COUNTRY]" caption="COUNTRY" propertyName="COUNTRY" numFmtId="0" hierarchy="21" level="1" memberPropertyField="1">
+      <sharedItems count="1">
+        <s v="US"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[DangerIndex]" caption="DangerIndex" numFmtId="0" hierarchy="47" level="32767"/>
-    <cacheField name="[ExceptionSunriseSunset]" caption="ExceptionSunriseSunset" numFmtId="0" hierarchy="54">
+    <cacheField name="[ExceptionSunriseSunset]" caption="ExceptionSunriseSunset" numFmtId="0" hierarchy="57">
       <sharedItems count="2">
         <s v="[DIM WEATHER].[SUNRISE SUNSET].&amp;[Day]" c="Day"/>
         <s v="[DIM WEATHER].[SUNRISE SUNSET].&amp;[Night]" c="Night"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="[Measures].[DangerIndex]" caption="DangerIndex" numFmtId="0" hierarchy="49" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="57">
+  <cacheHierarchies count="61">
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[AMENITY]" caption="AMENITY" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[AMENITY].[All]" allUniqueName="[DIM ENVIRONMENT].[AMENITY].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[BUMP]" caption="BUMP" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[BUMP].[All]" allUniqueName="[DIM ENVIRONMENT].[BUMP].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[CROSSING]" caption="CROSSING" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[CROSSING].[All]" allUniqueName="[DIM ENVIRONMENT].[CROSSING].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
@@ -827,6 +833,7 @@
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL]" caption="TRAFFIC SIGNAL" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL].[All]" allUniqueName="[DIM ENVIRONMENT].[TRAFFIC SIGNAL].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM ENVIRONMENT].[TURNING LOOP]" caption="TURNING LOOP" attribute="1" defaultMemberUniqueName="[DIM ENVIRONMENT].[TURNING LOOP].[All]" allUniqueName="[DIM ENVIRONMENT].[TURNING LOOP].[All]" dimensionUniqueName="[DIM ENVIRONMENT]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[CITY]" caption="CITY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[CITY].[All]" allUniqueName="[DIM LOCATION].[CITY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM LOCATION].[COUNTRY]" caption="COUNTRY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[COUNTRY].[All]" allUniqueName="[DIM LOCATION].[COUNTRY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[COUNTY]" caption="COUNTY" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[COUNTY].[All]" allUniqueName="[DIM LOCATION].[COUNTY].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[DIM LOCATION].[Hierarchy].[All]" allUniqueName="[DIM LOCATION].[Hierarchy].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[LATITUDE]" caption="LATITUDE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[LATITUDE].[All]" allUniqueName="[DIM LOCATION].[LATITUDE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
@@ -838,8 +845,9 @@
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[DIM LOCATION].[STREET]" caption="STREET" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[STREET].[All]" allUniqueName="[DIM LOCATION].[STREET].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM LOCATION].[STREET]" caption="STREET" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[STREET].[All]" allUniqueName="[DIM LOCATION].[STREET].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM LOCATION].[ZIPCODE]" caption="ZIPCODE" attribute="1" defaultMemberUniqueName="[DIM LOCATION].[ZIPCODE].[All]" allUniqueName="[DIM LOCATION].[ZIPCODE].[All]" dimensionUniqueName="[DIM LOCATION]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DIM TIME].[DATE]" caption="DATE" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[DATE].[All]" allUniqueName="[DIM TIME].[DATE].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[DAY]" caption="DAY" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[DAY].[All]" allUniqueName="[DIM TIME].[DAY].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[Hierarchy]" caption="Hierarchy" time="1" defaultMemberUniqueName="[DIM TIME].[Hierarchy].[All]" allUniqueName="[DIM TIME].[Hierarchy].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DIM TIME].[HOUR]" caption="HOUR" attribute="1" time="1" defaultMemberUniqueName="[DIM TIME].[HOUR].[All]" allUniqueName="[DIM TIME].[HOUR].[All]" dimensionUniqueName="[DIM TIME]" displayFolder="" count="0" unbalanced="0"/>
@@ -866,16 +874,17 @@
     <cacheHierarchy uniqueName="[Measures].[AvgSeverity]" caption="AvgSeverity" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[DangerIndex]" caption="DangerIndex" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="1"/>
+        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[YoYGrowth_Percent]" caption="YoYGrowth_Percent" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Avg YoY Growth Range]" caption="Avg YoY Growth Range" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Accidents (Traffic Signal)]" caption="Accidents (Traffic Signal)" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Accidents (Stop Sign)]" caption="Accidents (Stop Sign)" measure="1" displayFolder="" measureGroup="FACT ACCIDENT" count="0"/>
     <cacheHierarchy uniqueName="[Top20CityHighestGrowth]" caption="Top20CityHighestGrowth" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[ListCityGreaterThan1000Accidents]" caption="ListCityGreaterThan1000Accidents" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
     <cacheHierarchy uniqueName="[Top5CityMostDangerous]" caption="Top5CityMostDangerous" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[Top10StateHighestAccidents]" caption="Top10StateHighestAccidents" set="1" parentSet="20" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[ExceptionSunriseSunset]" caption="ExceptionSunriseSunset" set="1" parentSet="34" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0">
+    <cacheHierarchy uniqueName="[Top3CityTotalAccidentsPerState]" caption="Top3CityTotalAccidentsPerState" set="1" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[ExceptionSunriseSunset]" caption="ExceptionSunriseSunset" set="1" parentSet="36" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0">
       <fieldsUsage count="1">
         <fieldUsage x="2"/>
       </fieldsUsage>
@@ -883,14 +892,15 @@
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{8CF416AD-EC4C-4aba-99F5-12A058AE0983}">
           <x14:cacheHierarchy>
             <x14:setLevels count="1">
-              <x14:setLevel hierarchy="34"/>
+              <x14:setLevel hierarchy="36"/>
             </x14:setLevels>
           </x14:cacheHierarchy>
         </ext>
       </extLst>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Top10DangerousStreet]" caption="Top10DangerousStreet" set="1" parentSet="21" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
-    <cacheHierarchy uniqueName="[Top3CityTotalAccidentsPerState]" caption="Top3CityTotalAccidentsPerState" set="1" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[ListCityGreaterThan1000Accidents]" caption="ListCityGreaterThan1000Accidents" set="1" parentSet="14" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Top10StateHighestAccidents]" caption="Top10StateHighestAccidents" set="1" parentSet="21" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
+    <cacheHierarchy uniqueName="[Top10DangerousStreet]" caption="Top10DangerousStreet" set="1" parentSet="22" displayFolder="" count="0" unbalanced="0" unbalancedGroup="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
   <dimensions count="5">
@@ -918,9 +928,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81263BAF-D1BF-4B38-8814-4EAC0B585C2F}" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{725A0B91-73A6-447E-80B1-F6AF3E1B7A44}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:B148" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
+  <pivotFields count="4">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="49">
         <item x="0"/>
@@ -974,13 +984,14 @@
         <item x="48"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" showPropTip="1"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0">
       <items count="2">
         <item x="0"/>
         <item x="1"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
@@ -1433,29 +1444,35 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField fld="1" baseField="0" baseItem="0"/>
+    <dataField fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotHierarchies count="57">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="61">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy>
+      <mps count="1">
+        <mp field="1"/>
+      </mps>
+    </pivotHierarchy>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -1486,6 +1503,8 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -1496,8 +1515,8 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="20"/>
-    <rowHierarchyUsage hierarchyUsage="54"/>
+    <rowHierarchyUsage hierarchyUsage="21"/>
+    <rowHierarchyUsage hierarchyUsage="57"/>
   </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1826,10 +1845,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C36EF31-A281-4DEF-AF06-0CA12769F86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48134E71-761D-48DB-B773-2531F7638E02}">
   <dimension ref="A1:B148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1847,7 +1866,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -1856,7 +1875,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="5">
-        <v>152721</v>
+        <v>343622.25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1864,12 +1883,12 @@
         <v>51</v>
       </c>
       <c r="B4" s="5">
-        <v>52538.8</v>
+        <v>117161.52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4"/>
     </row>
@@ -1878,7 +1897,7 @@
         <v>50</v>
       </c>
       <c r="B6" s="5">
-        <v>25049.45</v>
+        <v>56862.25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1886,12 +1905,12 @@
         <v>51</v>
       </c>
       <c r="B7" s="5">
-        <v>13898.88</v>
+        <v>31689.45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B8" s="4"/>
     </row>
@@ -1900,7 +1919,7 @@
         <v>50</v>
       </c>
       <c r="B9" s="5">
-        <v>201415.2</v>
+        <v>422971.92</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1908,12 +1927,12 @@
         <v>51</v>
       </c>
       <c r="B10" s="5">
-        <v>84286.04</v>
+        <v>180372.13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" s="4"/>
     </row>
@@ -1922,7 +1941,7 @@
         <v>50</v>
       </c>
       <c r="B12" s="5">
-        <v>1732674.54</v>
+        <v>3707923.52</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1930,12 +1949,12 @@
         <v>51</v>
       </c>
       <c r="B13" s="5">
-        <v>938265</v>
+        <v>1998504.45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B14" s="4"/>
     </row>
@@ -1944,7 +1963,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="5">
-        <v>129776.28</v>
+        <v>316654.12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1952,12 +1971,12 @@
         <v>51</v>
       </c>
       <c r="B16" s="5">
-        <v>49075</v>
+        <v>122687.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B17" s="4"/>
     </row>
@@ -1966,7 +1985,7 @@
         <v>50</v>
       </c>
       <c r="B18" s="5">
-        <v>77978.16</v>
+        <v>182468.89</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1974,12 +1993,12 @@
         <v>51</v>
       </c>
       <c r="B19" s="5">
-        <v>38067.120000000003</v>
+        <v>89077.06</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B20" s="4"/>
     </row>
@@ -1988,7 +2007,7 @@
         <v>50</v>
       </c>
       <c r="B21" s="5">
-        <v>20465.04</v>
+        <v>43590.54</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1996,12 +2015,12 @@
         <v>51</v>
       </c>
       <c r="B22" s="5">
-        <v>9460.94</v>
+        <v>20246.41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B23" s="4"/>
     </row>
@@ -2010,7 +2029,7 @@
         <v>50</v>
       </c>
       <c r="B24" s="5">
-        <v>18360</v>
+        <v>39657.599999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2018,12 +2037,12 @@
         <v>51</v>
       </c>
       <c r="B25" s="5">
-        <v>6582.04</v>
+        <v>15533.61</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" s="4"/>
     </row>
@@ -2032,7 +2051,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="5">
-        <v>996780.36</v>
+        <v>2123142.17</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2040,12 +2059,12 @@
         <v>51</v>
       </c>
       <c r="B28" s="5">
-        <v>395374.25</v>
+        <v>850054.64</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B29" s="4"/>
     </row>
@@ -2054,7 +2073,7 @@
         <v>50</v>
       </c>
       <c r="B30" s="5">
-        <v>200203.47</v>
+        <v>498506.64</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2062,12 +2081,12 @@
         <v>51</v>
       </c>
       <c r="B31" s="5">
-        <v>94683.96</v>
+        <v>238603.58</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B32" s="4"/>
     </row>
@@ -2076,7 +2095,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="5">
-        <v>29119.86</v>
+        <v>70470.06</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2084,12 +2103,12 @@
         <v>51</v>
       </c>
       <c r="B34" s="5">
-        <v>14802.65</v>
+        <v>34786.230000000003</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B35" s="4"/>
     </row>
@@ -2098,7 +2117,7 @@
         <v>50</v>
       </c>
       <c r="B36" s="5">
-        <v>11687.52</v>
+        <v>24310.04</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2106,12 +2125,12 @@
         <v>51</v>
       </c>
       <c r="B37" s="5">
-        <v>6064.76</v>
+        <v>12978.59</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B38" s="4"/>
     </row>
@@ -2120,7 +2139,7 @@
         <v>50</v>
       </c>
       <c r="B39" s="5">
-        <v>201708.83</v>
+        <v>482084.1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2128,12 +2147,12 @@
         <v>51</v>
       </c>
       <c r="B40" s="5">
-        <v>84729.7</v>
+        <v>214366.14</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B41" s="4"/>
     </row>
@@ -2142,7 +2161,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="5">
-        <v>85658.63</v>
+        <v>206437.3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2150,12 +2169,12 @@
         <v>51</v>
       </c>
       <c r="B43" s="5">
-        <v>38599.199999999997</v>
+        <v>92638.080000000002</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B44" s="4"/>
     </row>
@@ -2164,7 +2183,7 @@
         <v>50</v>
       </c>
       <c r="B45" s="5">
-        <v>25427.919999999998</v>
+        <v>60518.45</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2172,12 +2191,12 @@
         <v>51</v>
       </c>
       <c r="B46" s="5">
-        <v>10568.25</v>
+        <v>24412.66</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B47" s="4"/>
     </row>
@@ -2186,7 +2205,7 @@
         <v>50</v>
       </c>
       <c r="B48" s="5">
-        <v>49053.760000000002</v>
+        <v>119691.17</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2194,12 +2213,12 @@
         <v>51</v>
       </c>
       <c r="B49" s="5">
-        <v>16882.95</v>
+        <v>41363.230000000003</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B50" s="4"/>
     </row>
@@ -2208,7 +2227,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5">
-        <v>193205.91</v>
+        <v>411528.59</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2216,12 +2235,12 @@
         <v>51</v>
       </c>
       <c r="B52" s="5">
-        <v>61584.69</v>
+        <v>131175.39000000001</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B53" s="4"/>
     </row>
@@ -2230,7 +2249,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="5">
-        <v>81027.78</v>
+        <v>183122.78</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2238,12 +2257,12 @@
         <v>51</v>
       </c>
       <c r="B55" s="5">
-        <v>24544.2</v>
+        <v>55960.78</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B56" s="4"/>
     </row>
@@ -2252,7 +2271,7 @@
         <v>50</v>
       </c>
       <c r="B57" s="5">
-        <v>153186.9</v>
+        <v>352329.87</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2260,12 +2279,12 @@
         <v>51</v>
       </c>
       <c r="B58" s="5">
-        <v>76918.899999999994</v>
+        <v>176913.47</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B59" s="4"/>
     </row>
@@ -2274,7 +2293,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="5">
-        <v>3193.02</v>
+        <v>6992.71</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2282,12 +2301,12 @@
         <v>51</v>
       </c>
       <c r="B61" s="5">
-        <v>1110.54</v>
+        <v>2476.5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B62" s="4"/>
     </row>
@@ -2296,7 +2315,7 @@
         <v>50</v>
       </c>
       <c r="B63" s="5">
-        <v>161406.09</v>
+        <v>376076.19</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,12 +2323,12 @@
         <v>51</v>
       </c>
       <c r="B64" s="5">
-        <v>83234.64</v>
+        <v>193104.36</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B65" s="4"/>
     </row>
@@ -2318,7 +2337,7 @@
         <v>50</v>
       </c>
       <c r="B66" s="5">
-        <v>207379.86</v>
+        <v>454161.89</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2326,12 +2345,12 @@
         <v>51</v>
       </c>
       <c r="B67" s="5">
-        <v>126262.39999999999</v>
+        <v>266413.65999999997</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B68" s="4"/>
     </row>
@@ -2340,7 +2359,7 @@
         <v>50</v>
       </c>
       <c r="B69" s="5">
-        <v>94988.95</v>
+        <v>232722.93</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2348,12 +2367,12 @@
         <v>51</v>
       </c>
       <c r="B70" s="5">
-        <v>39400.800000000003</v>
+        <v>94561.919999999998</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B71" s="4"/>
     </row>
@@ -2362,7 +2381,7 @@
         <v>50</v>
       </c>
       <c r="B72" s="5">
-        <v>21930.2</v>
+        <v>51535.97</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2370,12 +2389,12 @@
         <v>51</v>
       </c>
       <c r="B73" s="5">
-        <v>6266.52</v>
+        <v>14663.66</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B74" s="4"/>
     </row>
@@ -2384,7 +2403,7 @@
         <v>50</v>
       </c>
       <c r="B75" s="5">
-        <v>21467.599999999999</v>
+        <v>44008.58</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,12 +2411,12 @@
         <v>51</v>
       </c>
       <c r="B76" s="5">
-        <v>20715.099999999999</v>
+        <v>41844.5</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B77" s="4"/>
     </row>
@@ -2406,7 +2425,7 @@
         <v>50</v>
       </c>
       <c r="B78" s="5">
-        <v>418858.11</v>
+        <v>892167.77</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2414,12 +2433,12 @@
         <v>51</v>
       </c>
       <c r="B79" s="5">
-        <v>144592.56</v>
+        <v>312319.93</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B80" s="4"/>
     </row>
@@ -2428,7 +2447,7 @@
         <v>50</v>
       </c>
       <c r="B81" s="5">
-        <v>2557.3200000000002</v>
+        <v>5165.79</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2436,12 +2455,12 @@
         <v>51</v>
       </c>
       <c r="B82" s="5">
-        <v>2054</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B83" s="4"/>
     </row>
@@ -2450,7 +2469,7 @@
         <v>50</v>
       </c>
       <c r="B84" s="5">
-        <v>26972.04</v>
+        <v>59068.77</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2458,12 +2477,12 @@
         <v>51</v>
       </c>
       <c r="B85" s="5">
-        <v>8247.7199999999993</v>
+        <v>18227.46</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B86" s="4"/>
     </row>
@@ -2472,7 +2491,7 @@
         <v>50</v>
       </c>
       <c r="B87" s="5">
-        <v>12899.25</v>
+        <v>29023.31</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,12 +2499,12 @@
         <v>51</v>
       </c>
       <c r="B88" s="5">
-        <v>4551.68</v>
+        <v>10195.76</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B89" s="4"/>
     </row>
@@ -2494,7 +2513,7 @@
         <v>50</v>
       </c>
       <c r="B90" s="5">
-        <v>151994.57</v>
+        <v>338947.89</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2502,12 +2521,12 @@
         <v>51</v>
       </c>
       <c r="B91" s="5">
-        <v>65531.25</v>
+        <v>147445.31</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B92" s="4"/>
     </row>
@@ -2516,7 +2535,7 @@
         <v>50</v>
       </c>
       <c r="B93" s="5">
-        <v>16066.23</v>
+        <v>38076.97</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2524,12 +2543,12 @@
         <v>51</v>
       </c>
       <c r="B94" s="5">
-        <v>3889.25</v>
+        <v>9139.74</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B95" s="4"/>
     </row>
@@ -2538,7 +2557,7 @@
         <v>50</v>
       </c>
       <c r="B96" s="5">
-        <v>24113.64</v>
+        <v>53532.28</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2546,12 +2565,12 @@
         <v>51</v>
       </c>
       <c r="B97" s="5">
-        <v>10804.69</v>
+        <v>23878.36</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B98" s="4"/>
     </row>
@@ -2560,7 +2579,7 @@
         <v>50</v>
       </c>
       <c r="B99" s="5">
-        <v>376004.16</v>
+        <v>842249.32</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2568,12 +2587,12 @@
         <v>51</v>
       </c>
       <c r="B100" s="5">
-        <v>171409.97</v>
+        <v>389100.63</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B101" s="4"/>
     </row>
@@ -2582,7 +2601,7 @@
         <v>50</v>
       </c>
       <c r="B102" s="5">
-        <v>140842.26</v>
+        <v>329570.89</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2590,12 +2609,12 @@
         <v>51</v>
       </c>
       <c r="B103" s="5">
-        <v>56807.519999999997</v>
+        <v>131793.45000000001</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B104" s="4"/>
     </row>
@@ -2604,7 +2623,7 @@
         <v>50</v>
       </c>
       <c r="B105" s="5">
-        <v>116143.56</v>
+        <v>240417.17</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2612,12 +2631,12 @@
         <v>51</v>
       </c>
       <c r="B106" s="5">
-        <v>31264.31</v>
+        <v>65342.41</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B107" s="4"/>
     </row>
@@ -2626,7 +2645,7 @@
         <v>50</v>
       </c>
       <c r="B108" s="5">
-        <v>196977.9</v>
+        <v>413653.59</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2634,12 +2653,12 @@
         <v>51</v>
       </c>
       <c r="B109" s="5">
-        <v>119040.6</v>
+        <v>249985.26</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B110" s="4"/>
     </row>
@@ -2648,7 +2667,7 @@
         <v>50</v>
       </c>
       <c r="B111" s="5">
-        <v>296964.33</v>
+        <v>656291.17000000004</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,12 +2675,12 @@
         <v>51</v>
       </c>
       <c r="B112" s="5">
-        <v>154596.35999999999</v>
+        <v>343203.92</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B113" s="4"/>
     </row>
@@ -2670,7 +2689,7 @@
         <v>50</v>
       </c>
       <c r="B114" s="5">
-        <v>23488.15</v>
+        <v>57545.97</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2678,12 +2697,12 @@
         <v>51</v>
       </c>
       <c r="B115" s="5">
-        <v>6372.45</v>
+        <v>15612.5</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B116" s="4"/>
     </row>
@@ -2692,7 +2711,7 @@
         <v>50</v>
       </c>
       <c r="B117" s="5">
-        <v>473308.87</v>
+        <v>998681.72</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2700,7 +2719,7 @@
         <v>51</v>
       </c>
       <c r="B118" s="5">
-        <v>191354.13</v>
+        <v>399930.13</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2714,7 +2733,7 @@
         <v>50</v>
       </c>
       <c r="B120" s="5">
-        <v>186.34</v>
+        <v>450.94</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2722,12 +2741,12 @@
         <v>51</v>
       </c>
       <c r="B121" s="5">
-        <v>238.59</v>
+        <v>575</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B122" s="4"/>
     </row>
@@ -2736,7 +2755,7 @@
         <v>50</v>
       </c>
       <c r="B123" s="5">
-        <v>217602</v>
+        <v>478724.4</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2744,12 +2763,12 @@
         <v>51</v>
       </c>
       <c r="B124" s="5">
-        <v>84002.6</v>
+        <v>184805.72</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B125" s="4"/>
     </row>
@@ -2758,7 +2777,7 @@
         <v>50</v>
       </c>
       <c r="B126" s="5">
-        <v>642264.53</v>
+        <v>1432249.9</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2766,12 +2785,12 @@
         <v>51</v>
       </c>
       <c r="B127" s="5">
-        <v>258563.4</v>
+        <v>574010.75</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B128" s="4"/>
     </row>
@@ -2780,7 +2799,7 @@
         <v>50</v>
       </c>
       <c r="B129" s="5">
-        <v>121560.33</v>
+        <v>266217.12</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2788,12 +2807,12 @@
         <v>51</v>
       </c>
       <c r="B130" s="5">
-        <v>55233.5</v>
+        <v>118752.02</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B131" s="4"/>
     </row>
@@ -2802,7 +2821,7 @@
         <v>50</v>
       </c>
       <c r="B132" s="5">
-        <v>358897.08</v>
+        <v>818285.34</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2810,12 +2829,12 @@
         <v>51</v>
       </c>
       <c r="B133" s="5">
-        <v>160877.07999999999</v>
+        <v>368408.51</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B134" s="4"/>
     </row>
@@ -2824,7 +2843,7 @@
         <v>50</v>
       </c>
       <c r="B135" s="5">
-        <v>1327.91</v>
+        <v>3200.26</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2832,12 +2851,12 @@
         <v>51</v>
       </c>
       <c r="B136" s="5">
-        <v>466.05</v>
+        <v>1113.8599999999999</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B137" s="4"/>
     </row>
@@ -2846,7 +2865,7 @@
         <v>50</v>
       </c>
       <c r="B138" s="5">
-        <v>110548.62</v>
+        <v>258683.77</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2854,12 +2873,12 @@
         <v>51</v>
       </c>
       <c r="B139" s="5">
-        <v>62141.8</v>
+        <v>147897.48000000001</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B140" s="4"/>
     </row>
@@ -2868,7 +2887,7 @@
         <v>50</v>
       </c>
       <c r="B141" s="5">
-        <v>46625.96</v>
+        <v>113767.34</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2876,12 +2895,12 @@
         <v>51</v>
       </c>
       <c r="B142" s="5">
-        <v>16796.16</v>
+        <v>42998.17</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B143" s="4"/>
     </row>
@@ -2890,7 +2909,7 @@
         <v>50</v>
       </c>
       <c r="B144" s="5">
-        <v>12042.15</v>
+        <v>25890.62</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2898,7 +2917,7 @@
         <v>51</v>
       </c>
       <c r="B145" s="5">
-        <v>7855.44</v>
+        <v>16732.09</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2912,7 +2931,7 @@
         <v>50</v>
       </c>
       <c r="B147" s="5">
-        <v>3071.68</v>
+        <v>7126.3</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2939,7 @@
         <v>51</v>
       </c>
       <c r="B148" s="5">
-        <v>2789.28</v>
+        <v>6526.92</v>
       </c>
     </row>
   </sheetData>
